--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1492070.84259284</v>
+        <v>1461677.537243704</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1178890.600994685</v>
+        <v>1178890.600994684</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4367113.754329098</v>
+        <v>4367113.754329099</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9861606.059743483</v>
+        <v>9861606.059743481</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3112479598479</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>378.1699711250221</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>9.693200015578078</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>78.13981344678575</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>228.4382385987722</v>
       </c>
       <c r="H5" t="n">
-        <v>275.2205144772651</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>177.0380502675236</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.213740718609</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350.4192841891004</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.7559072257416</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>273.0715470750424</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>274.4876658745443</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>95.42292247365016</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>179.7188787253435</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
@@ -1549,7 +1549,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>194.8009980918497</v>
+        <v>212.4968399736186</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>234.7004619186892</v>
+        <v>213.9189633675408</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>88.86957797204671</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -1786,7 +1786,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>204.3231207172435</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>179.7188787253433</v>
+        <v>107.1320403138241</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>95.97556051608234</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>79.28604738508845</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,19 +2084,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>64.9430354810988</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>124.7733826108878</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.192132874534195</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>165.0140383262327</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>277.5948985960645</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>179.7188787253442</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S24" t="n">
         <v>147.9721212459916</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>129.2224443473072</v>
       </c>
       <c r="G25" t="n">
-        <v>55.11734649940457</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>123.1639633674187</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>52.23166108618064</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S27" t="n">
         <v>147.9721212459916</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>79.28604738508825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>62.29701398644895</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>264.8835242011457</v>
       </c>
       <c r="H29" t="n">
-        <v>201.2075889726223</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S30" t="n">
         <v>147.9721212459916</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>49.94675160483951</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>129.2224443473073</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>396.4625796423261</v>
+        <v>264.8835242011457</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S33" t="n">
         <v>147.9721212459916</v>
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>152.7120966692326</v>
+        <v>145.762711697983</v>
       </c>
       <c r="I34" t="n">
-        <v>104.484034351921</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>395.6591080511066</v>
+        <v>264.8835242011457</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S36" t="n">
         <v>147.9721212459916</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>88.66632655400974</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>137.748881675498</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3509,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>331.7730101981919</v>
       </c>
       <c r="H38" t="n">
-        <v>179.7188787253446</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S39" t="n">
         <v>147.9721212459916</v>
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001187</v>
+        <v>87.20173218087875</v>
       </c>
       <c r="T40" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>179.8857230322528</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3755,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>125.5768542021064</v>
+        <v>179.7188787253438</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S42" t="n">
         <v>147.9721212459916</v>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.44321853360741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>42.82655324281118</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>277.5948985960658</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>179.7188787253438</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S45" t="n">
         <v>147.9721212459916</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>49.94675160484011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>159.4196823148293</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1386.090004781549</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>1386.090004781549</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="D2" t="n">
-        <v>1386.090004781549</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>435.9328516436191</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4361,19 +4361,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1386.090004781549</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>718.3378730795879</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>718.3378730795879</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>718.3378730795879</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>491.0296857481896</v>
       </c>
       <c r="U4" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="V4" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W4" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1683.321707331112</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.359190390701</v>
+        <v>1920.38922933819</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.359190390701</v>
+        <v>1562.123530731439</v>
       </c>
       <c r="E5" t="n">
-        <v>1314.359190390701</v>
+        <v>1176.335278133195</v>
       </c>
       <c r="F5" t="n">
-        <v>903.3732856010931</v>
+        <v>765.3493733435873</v>
       </c>
       <c r="G5" t="n">
-        <v>485.40947749928</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.921547395234</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.5023158795654</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>188.5023158795654</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>188.5023158795654</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>188.5023158795654</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230955</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.5023158795654</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1717.512263598976</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2015.081949825207</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C11" t="n">
-        <v>1646.119432884795</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.853734278045</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E11" t="n">
-        <v>902.0654816798005</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F11" t="n">
-        <v>491.079576890193</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G11" t="n">
-        <v>73.9917951266205</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
         <v>73.9917951266205</v>
@@ -5042,7 +5042,7 @@
         <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L11" t="n">
         <v>1218.912065406599</v>
@@ -5069,22 +5069,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>3603.202965953601</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.589756331025</v>
+        <v>3603.202965953601</v>
       </c>
       <c r="V11" t="n">
-        <v>3518.055535396335</v>
+        <v>3603.202965953601</v>
       </c>
       <c r="W11" t="n">
-        <v>3165.28688012622</v>
+        <v>3603.202965953601</v>
       </c>
       <c r="X11" t="n">
-        <v>2791.82112186514</v>
+        <v>3229.737207692521</v>
       </c>
       <c r="Y11" t="n">
-        <v>2401.681789889329</v>
+        <v>2839.597875716709</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
         <v>119.8966521363041</v>
@@ -5118,22 +5118,22 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>73.9917951266205</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K12" t="n">
-        <v>141.599614789977</v>
+        <v>316.517120491584</v>
       </c>
       <c r="L12" t="n">
-        <v>645.9611546560949</v>
+        <v>453.7467185072773</v>
       </c>
       <c r="M12" t="n">
-        <v>1253.562877620961</v>
+        <v>1094.292067974381</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273625</v>
+        <v>1767.497760227163</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P12" t="n">
         <v>2425.623396507183</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="C13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="D13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="E13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="F13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="G13" t="n">
-        <v>370.6327006118921</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="H13" t="n">
-        <v>216.3780575116571</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I13" t="n">
-        <v>91.8663828859833</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
         <v>73.9917951266205</v>
@@ -5203,16 +5203,16 @@
         <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P13" t="n">
         <v>1070.508157165603</v>
@@ -5221,28 +5221,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>943.4485153053656</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="S13" t="n">
-        <v>736.008230557771</v>
+        <v>736.0082305577707</v>
       </c>
       <c r="T13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="U13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="V13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="W13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="X13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="Y13" t="n">
-        <v>539.2395456165086</v>
+        <v>521.3649578571459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2015.081949825207</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C14" t="n">
-        <v>1646.119432884795</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.853734278045</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E14" t="n">
-        <v>902.0654816798005</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F14" t="n">
-        <v>491.079576890193</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G14" t="n">
-        <v>73.9917951266205</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H14" t="n">
         <v>73.9917951266205</v>
@@ -5276,22 +5276,22 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604006</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
         <v>3454.413795556125</v>
@@ -5309,19 +5309,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>3462.518582675783</v>
+        <v>3483.509995353711</v>
       </c>
       <c r="V14" t="n">
-        <v>3131.455695332213</v>
+        <v>3483.509995353711</v>
       </c>
       <c r="W14" t="n">
-        <v>2778.687040062098</v>
+        <v>3483.509995353711</v>
       </c>
       <c r="X14" t="n">
-        <v>2405.221281801018</v>
+        <v>3110.044237092631</v>
       </c>
       <c r="Y14" t="n">
-        <v>2015.081949825207</v>
+        <v>2719.904905116819</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>192.6510469835158</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893251</v>
+        <v>316.517120491584</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>453.7467185072773</v>
       </c>
       <c r="M15" t="n">
-        <v>1253.562877620961</v>
+        <v>1094.292067974381</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273625</v>
+        <v>1767.497760227163</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P15" t="n">
         <v>2425.623396507183</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1073.926476585963</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="C16" t="n">
-        <v>984.1592261091479</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="D16" t="n">
-        <v>834.0425866968121</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="E16" t="n">
-        <v>686.129493114419</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="F16" t="n">
-        <v>539.2395456165086</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="G16" t="n">
-        <v>370.6327006118921</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="H16" t="n">
-        <v>216.3780575116571</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I16" t="n">
-        <v>91.86638288598331</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
         <v>73.9917951266205</v>
@@ -5461,25 +5461,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>867.5394859624845</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585963</v>
+        <v>641.9102892748494</v>
       </c>
       <c r="U16" t="n">
-        <v>1073.926476585963</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="V16" t="n">
-        <v>1073.926476585963</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="W16" t="n">
-        <v>1073.926476585963</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="X16" t="n">
-        <v>1073.926476585963</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="Y16" t="n">
-        <v>1073.926476585963</v>
+        <v>352.7581128525293</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2196.616170759897</v>
+        <v>2123.296131960383</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.653653819485</v>
+        <v>1754.333615019971</v>
       </c>
       <c r="D17" t="n">
-        <v>1469.387955212735</v>
+        <v>1396.067916413221</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.599702614491</v>
+        <v>1010.279663814976</v>
       </c>
       <c r="F17" t="n">
-        <v>672.6137978248832</v>
+        <v>599.2937590253689</v>
       </c>
       <c r="G17" t="n">
-        <v>255.5260160613107</v>
+        <v>182.2059772617964</v>
       </c>
       <c r="H17" t="n">
         <v>73.9917951266205</v>
@@ -5516,7 +5516,7 @@
         <v>262.6316941403563</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L17" t="n">
         <v>1218.912065406599</v>
@@ -5528,7 +5528,7 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
         <v>3454.413795556125</v>
@@ -5543,22 +5543,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331025</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V17" t="n">
-        <v>3699.589756331025</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.821101060911</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="X17" t="n">
-        <v>2973.355342799831</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="Y17" t="n">
-        <v>2583.216010824019</v>
+        <v>2509.895972024505</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835158</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K18" t="n">
-        <v>316.517120491584</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L18" t="n">
-        <v>453.7467185072773</v>
+        <v>278.8292128056702</v>
       </c>
       <c r="M18" t="n">
-        <v>1094.292067974381</v>
+        <v>919.374562272774</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.497760227163</v>
+        <v>1592.580254525556</v>
       </c>
       <c r="O18" t="n">
-        <v>2316.933768979885</v>
+        <v>2142.016263278278</v>
       </c>
       <c r="P18" t="n">
         <v>2425.623396507183</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.8113935082887</v>
+        <v>154.0787116772149</v>
       </c>
       <c r="C19" t="n">
-        <v>91.86638288598331</v>
+        <v>154.0787116772149</v>
       </c>
       <c r="D19" t="n">
-        <v>91.86638288598331</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E19" t="n">
-        <v>91.86638288598331</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F19" t="n">
-        <v>91.86638288598331</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G19" t="n">
-        <v>91.86638288598331</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>91.86638288598331</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>91.86638288598331</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
         <v>73.9917951266205</v>
@@ -5707,16 +5707,16 @@
         <v>1073.926476585963</v>
       </c>
       <c r="V19" t="n">
-        <v>819.2419883800759</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W19" t="n">
-        <v>819.2419883800759</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="X19" t="n">
-        <v>591.2524374820586</v>
+        <v>556.5197556509847</v>
       </c>
       <c r="Y19" t="n">
-        <v>370.4598583385284</v>
+        <v>335.7271765074546</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1981.816309027609</v>
+        <v>1397.06171842919</v>
       </c>
       <c r="C20" t="n">
-        <v>1612.853792087197</v>
+        <v>1028.099201488778</v>
       </c>
       <c r="D20" t="n">
-        <v>1254.588093480447</v>
+        <v>1028.099201488778</v>
       </c>
       <c r="E20" t="n">
-        <v>868.7998408822023</v>
+        <v>1028.099201488778</v>
       </c>
       <c r="F20" t="n">
-        <v>457.8139360925947</v>
+        <v>617.1132966991706</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>200.0255149355981</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403564</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406599</v>
@@ -5762,40 +5762,40 @@
         <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O20" t="n">
         <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="T20" t="n">
-        <v>3484.789894598736</v>
+        <v>3484.789894598737</v>
       </c>
       <c r="U20" t="n">
-        <v>3484.789894598736</v>
+        <v>3231.098191343888</v>
       </c>
       <c r="V20" t="n">
-        <v>3484.789894598736</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W20" t="n">
-        <v>3132.021239328622</v>
+        <v>2547.266648730203</v>
       </c>
       <c r="X20" t="n">
-        <v>2758.555481067542</v>
+        <v>2173.800890469123</v>
       </c>
       <c r="Y20" t="n">
-        <v>2368.41614909173</v>
+        <v>1783.661558493312</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.666383316602</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035475</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374223</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368768</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>1401.506931395653</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914995</v>
+        <v>1264.065533754875</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>1163.149555899679</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>1117.244698889996</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835159</v>
+        <v>1235.903950746891</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893252</v>
+        <v>1565.3323550527</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>2069.693894918818</v>
       </c>
       <c r="M21" t="n">
-        <v>1205.938327510047</v>
+        <v>2686.739477468299</v>
       </c>
       <c r="N21" t="n">
-        <v>1879.144019762829</v>
+        <v>2885.396219120963</v>
       </c>
       <c r="O21" t="n">
-        <v>2038.656332431589</v>
+        <v>3044.908531789722</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>3468.876300270559</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.477856733212</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595847</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755935</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.882984267101</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035358</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307156</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101624</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.88172033667</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.20607075746312</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C22" t="n">
-        <v>76.20607075746312</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K22" t="n">
         <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165603</v>
@@ -5938,22 +5938,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>848.2972798983279</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>848.2972798983279</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V22" t="n">
-        <v>593.6127916924411</v>
+        <v>530.0898119577556</v>
       </c>
       <c r="W22" t="n">
-        <v>304.1956216554805</v>
+        <v>240.672641920795</v>
       </c>
       <c r="X22" t="n">
-        <v>76.20607075746312</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="Y22" t="n">
-        <v>76.20607075746312</v>
+        <v>73.99179512662052</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2196.616170759897</v>
+        <v>2196.616170759898</v>
       </c>
       <c r="C23" t="n">
-        <v>1827.653653819485</v>
+        <v>1827.653653819486</v>
       </c>
       <c r="D23" t="n">
-        <v>1469.387955212735</v>
+        <v>1469.387955212736</v>
       </c>
       <c r="E23" t="n">
-        <v>1083.599702614491</v>
+        <v>1083.599702614492</v>
       </c>
       <c r="F23" t="n">
-        <v>672.6137978248832</v>
+        <v>672.6137978248842</v>
       </c>
       <c r="G23" t="n">
-        <v>392.2149103541111</v>
+        <v>255.5260160613116</v>
       </c>
       <c r="H23" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I23" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J23" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K23" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L23" t="n">
         <v>1218.912065406599</v>
@@ -6005,34 +6005,34 @@
         <v>3025.098749216832</v>
       </c>
       <c r="P23" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q23" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R23" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S23" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="T23" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="V23" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="W23" t="n">
-        <v>3346.821101060911</v>
+        <v>3346.821101060912</v>
       </c>
       <c r="X23" t="n">
-        <v>2973.355342799831</v>
+        <v>2973.355342799832</v>
       </c>
       <c r="Y23" t="n">
-        <v>2583.216010824019</v>
+        <v>2583.21601082402</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H24" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I24" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J24" t="n">
         <v>192.6510469835159</v>
       </c>
       <c r="K24" t="n">
-        <v>316.5171204915839</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L24" t="n">
-        <v>453.7467185072771</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M24" t="n">
-        <v>1094.292067974381</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.497760227163</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O24" t="n">
-        <v>2316.933768979885</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P24" t="n">
         <v>2425.623396507183</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>426.306787985028</v>
+        <v>671.4854326121929</v>
       </c>
       <c r="C25" t="n">
-        <v>426.306787985028</v>
+        <v>502.549249684286</v>
       </c>
       <c r="D25" t="n">
-        <v>426.306787985028</v>
+        <v>352.4326102719502</v>
       </c>
       <c r="E25" t="n">
-        <v>426.306787985028</v>
+        <v>204.5195166895571</v>
       </c>
       <c r="F25" t="n">
-        <v>426.306787985028</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G25" t="n">
-        <v>370.6327006118921</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H25" t="n">
-        <v>216.3780575116571</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I25" t="n">
-        <v>91.8663828859833</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J25" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K25" t="n">
         <v>175.03972472223</v>
       </c>
       <c r="L25" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M25" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N25" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O25" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P25" t="n">
         <v>1070.508157165603</v>
@@ -6169,28 +6169,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R25" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S25" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T25" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U25" t="n">
-        <v>654.2963388830453</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V25" t="n">
-        <v>654.2963388830453</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W25" t="n">
-        <v>654.2963388830453</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X25" t="n">
-        <v>426.306787985028</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="Y25" t="n">
-        <v>426.306787985028</v>
+        <v>853.1338974424326</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1597.994168061634</v>
+        <v>1770.527476690269</v>
       </c>
       <c r="C26" t="n">
-        <v>1229.031651121223</v>
+        <v>1770.527476690269</v>
       </c>
       <c r="D26" t="n">
-        <v>870.7659525144722</v>
+        <v>1412.261778083518</v>
       </c>
       <c r="E26" t="n">
-        <v>484.9776999162281</v>
+        <v>1026.473525485274</v>
       </c>
       <c r="F26" t="n">
-        <v>73.99179512662052</v>
+        <v>615.4876206956665</v>
       </c>
       <c r="G26" t="n">
-        <v>73.99179512662052</v>
+        <v>198.3998389320939</v>
       </c>
       <c r="H26" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I26" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J26" t="n">
-        <v>262.6316941403564</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K26" t="n">
         <v>666.0988071604011</v>
@@ -6236,40 +6236,40 @@
         <v>1850.62987638991</v>
       </c>
       <c r="N26" t="n">
-        <v>2477.937544449756</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O26" t="n">
         <v>3025.098749216832</v>
       </c>
       <c r="P26" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q26" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R26" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S26" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T26" t="n">
-        <v>3484.789894598737</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U26" t="n">
-        <v>3432.030640976333</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V26" t="n">
-        <v>3100.967753632762</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W26" t="n">
-        <v>2748.199098362647</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X26" t="n">
-        <v>2374.733340101568</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="Y26" t="n">
-        <v>1984.594008125756</v>
+        <v>2157.12731675439</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.666383316601</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035474</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374222</v>
       </c>
       <c r="E27" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368767</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2540276322777</v>
+        <v>1401.506931395652</v>
       </c>
       <c r="G27" t="n">
-        <v>220.8126299914996</v>
+        <v>1264.065533754874</v>
       </c>
       <c r="H27" t="n">
-        <v>119.8966521363041</v>
+        <v>1163.149555899678</v>
       </c>
       <c r="I27" t="n">
-        <v>73.99179512662052</v>
+        <v>1117.244698889995</v>
       </c>
       <c r="J27" t="n">
-        <v>192.6510469835159</v>
+        <v>1235.90395074689</v>
       </c>
       <c r="K27" t="n">
-        <v>522.0794512893252</v>
+        <v>1565.332355052699</v>
       </c>
       <c r="L27" t="n">
-        <v>843.6704145912393</v>
+        <v>2069.693894918817</v>
       </c>
       <c r="M27" t="n">
-        <v>1484.215764058343</v>
+        <v>2686.739477468298</v>
       </c>
       <c r="N27" t="n">
-        <v>2157.421456311125</v>
+        <v>2885.396219120962</v>
       </c>
       <c r="O27" t="n">
-        <v>2316.933768979885</v>
+        <v>3044.908531789722</v>
       </c>
       <c r="P27" t="n">
-        <v>2425.623396507183</v>
+        <v>3468.876300270558</v>
       </c>
       <c r="Q27" t="n">
-        <v>2656.336852567651</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R27" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.477856733211</v>
       </c>
       <c r="S27" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595846</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755934</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.8829842671</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035357</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307156</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101623</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.881720336669</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2779.741991422278</v>
+        <v>602.8608417187623</v>
       </c>
       <c r="C28" t="n">
-        <v>2699.655074871684</v>
+        <v>433.9246587908555</v>
       </c>
       <c r="D28" t="n">
-        <v>2699.655074871684</v>
+        <v>283.8080193785197</v>
       </c>
       <c r="E28" t="n">
-        <v>2699.655074871684</v>
+        <v>283.8080193785197</v>
       </c>
       <c r="F28" t="n">
-        <v>2699.655074871684</v>
+        <v>136.9180718806093</v>
       </c>
       <c r="G28" t="n">
-        <v>2699.655074871684</v>
+        <v>136.9180718806093</v>
       </c>
       <c r="H28" t="n">
-        <v>2699.655074871684</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I28" t="n">
-        <v>2699.655074871684</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J28" t="n">
-        <v>2699.655074871684</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K28" t="n">
-        <v>2800.703004467293</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L28" t="n">
-        <v>2985.535999368111</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M28" t="n">
-        <v>3190.805600087348</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N28" t="n">
-        <v>3396.628964923452</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O28" t="n">
-        <v>3570.723860312051</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P28" t="n">
-        <v>3696.171436910666</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q28" t="n">
-        <v>3699.589756331026</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R28" t="n">
-        <v>3699.589756331026</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S28" t="n">
-        <v>3699.589756331026</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T28" t="n">
-        <v>3699.589756331026</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U28" t="n">
-        <v>3699.589756331026</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V28" t="n">
-        <v>3699.589756331026</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W28" t="n">
-        <v>3410.172586294065</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="X28" t="n">
-        <v>3182.183035396048</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="Y28" t="n">
-        <v>2961.390456252518</v>
+        <v>784.5093065490021</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2218.321938686442</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C29" t="n">
-        <v>1849.35942174603</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D29" t="n">
-        <v>1491.09372313928</v>
+        <v>1138.325067869165</v>
       </c>
       <c r="E29" t="n">
-        <v>1105.305470541035</v>
+        <v>752.5368152709207</v>
       </c>
       <c r="F29" t="n">
-        <v>694.3195657514277</v>
+        <v>341.5509104813131</v>
       </c>
       <c r="G29" t="n">
-        <v>277.2317839878552</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H29" t="n">
         <v>73.99179512662052</v>
@@ -6473,7 +6473,7 @@
         <v>1850.62987638991</v>
       </c>
       <c r="N29" t="n">
-        <v>2477.937544449756</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O29" t="n">
         <v>3025.098749216832</v>
@@ -6482,31 +6482,31 @@
         <v>3454.413795556126</v>
       </c>
       <c r="Q29" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R29" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S29" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T29" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U29" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V29" t="n">
         <v>3368.526868987455</v>
       </c>
       <c r="W29" t="n">
-        <v>3368.526868987455</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X29" t="n">
-        <v>2995.061110726375</v>
+        <v>2642.292455456261</v>
       </c>
       <c r="Y29" t="n">
-        <v>2604.921778750564</v>
+        <v>2252.153123480449</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>260.2588666468724</v>
       </c>
       <c r="L30" t="n">
-        <v>397.4884646625657</v>
+        <v>397.4884646625656</v>
       </c>
       <c r="M30" t="n">
         <v>1038.03381412967</v>
       </c>
       <c r="N30" t="n">
-        <v>1711.239506382452</v>
+        <v>1711.239506382451</v>
       </c>
       <c r="O30" t="n">
-        <v>2260.675515135174</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P30" t="n">
         <v>2425.623396507183</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.4958817141758</v>
+        <v>540.9577110492562</v>
       </c>
       <c r="C31" t="n">
-        <v>274.5596987862689</v>
+        <v>372.0215281213493</v>
       </c>
       <c r="D31" t="n">
-        <v>124.4430593739332</v>
+        <v>221.9048887090136</v>
       </c>
       <c r="E31" t="n">
         <v>73.99179512662052</v>
@@ -6625,16 +6625,16 @@
         <v>175.03972472223</v>
       </c>
       <c r="L31" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M31" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N31" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O31" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P31" t="n">
         <v>1070.508157165603</v>
@@ -6661,10 +6661,10 @@
         <v>1073.926476585963</v>
       </c>
       <c r="X31" t="n">
-        <v>845.9369256879456</v>
+        <v>943.3987550230261</v>
       </c>
       <c r="Y31" t="n">
-        <v>625.1443465444155</v>
+        <v>722.6061758794959</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1998.4614202256</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C32" t="n">
-        <v>1629.498903285189</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D32" t="n">
-        <v>1271.233204678438</v>
+        <v>1138.325067869165</v>
       </c>
       <c r="E32" t="n">
-        <v>885.4449520801938</v>
+        <v>752.5368152709207</v>
       </c>
       <c r="F32" t="n">
-        <v>474.4590472905863</v>
+        <v>341.5509104813131</v>
       </c>
       <c r="G32" t="n">
         <v>73.99179512662052</v>
@@ -6701,16 +6701,16 @@
         <v>262.6316941403566</v>
       </c>
       <c r="K32" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604014</v>
       </c>
       <c r="L32" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M32" t="n">
         <v>1850.62987638991</v>
       </c>
       <c r="N32" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O32" t="n">
         <v>3025.098749216832</v>
@@ -6719,31 +6719,31 @@
         <v>3454.413795556126</v>
       </c>
       <c r="Q32" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R32" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S32" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T32" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U32" t="n">
-        <v>3445.898053076177</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V32" t="n">
-        <v>3114.835165732606</v>
+        <v>3368.526868987455</v>
       </c>
       <c r="W32" t="n">
-        <v>2762.066510462492</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X32" t="n">
-        <v>2388.600752201412</v>
+        <v>2642.292455456261</v>
       </c>
       <c r="Y32" t="n">
-        <v>1998.4614202256</v>
+        <v>2252.153123480449</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.666383316601</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035474</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374223</v>
       </c>
       <c r="E33" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368767</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2540276322777</v>
+        <v>1401.506931395652</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8126299914996</v>
+        <v>1264.065533754874</v>
       </c>
       <c r="H33" t="n">
-        <v>119.8966521363041</v>
+        <v>1163.149555899679</v>
       </c>
       <c r="I33" t="n">
-        <v>73.99179512662052</v>
+        <v>1117.244698889995</v>
       </c>
       <c r="J33" t="n">
-        <v>192.6510469835159</v>
+        <v>1235.90395074689</v>
       </c>
       <c r="K33" t="n">
-        <v>522.0794512893252</v>
+        <v>1303.511770410247</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.440991155443</v>
+        <v>1440.74136842594</v>
       </c>
       <c r="M33" t="n">
-        <v>1253.562877620961</v>
+        <v>2081.286717893044</v>
       </c>
       <c r="N33" t="n">
-        <v>1452.219619273625</v>
+        <v>2754.492410145825</v>
       </c>
       <c r="O33" t="n">
-        <v>2001.655628026347</v>
+        <v>3044.908531789722</v>
       </c>
       <c r="P33" t="n">
-        <v>2425.623396507183</v>
+        <v>3468.876300270558</v>
       </c>
       <c r="Q33" t="n">
-        <v>2656.336852567651</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R33" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.477856733212</v>
       </c>
       <c r="S33" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595847</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755934</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.8829842671</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035358</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307156</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101623</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.881720336669</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>819.2419883800761</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="C34" t="n">
-        <v>650.3058054521692</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="D34" t="n">
-        <v>650.3058054521692</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="E34" t="n">
-        <v>502.3927118697761</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="F34" t="n">
-        <v>502.3927118697761</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="G34" t="n">
-        <v>333.7858668651595</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="H34" t="n">
-        <v>179.5312237649246</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I34" t="n">
         <v>73.99179512662052</v>
@@ -6862,16 +6862,16 @@
         <v>175.03972472223</v>
       </c>
       <c r="L34" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M34" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N34" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O34" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P34" t="n">
         <v>1070.508157165603</v>
@@ -6880,28 +6880,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R34" t="n">
-        <v>1073.926476585963</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="S34" t="n">
-        <v>1073.926476585963</v>
+        <v>736.0082305577707</v>
       </c>
       <c r="T34" t="n">
-        <v>1073.926476585963</v>
+        <v>510.3790338701357</v>
       </c>
       <c r="U34" t="n">
-        <v>1073.926476585963</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="V34" t="n">
-        <v>819.2419883800761</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="W34" t="n">
-        <v>819.2419883800761</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="X34" t="n">
-        <v>819.2419883800761</v>
+        <v>221.2268574478155</v>
       </c>
       <c r="Y34" t="n">
-        <v>819.2419883800761</v>
+        <v>221.2268574478155</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1611.861580161478</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C35" t="n">
-        <v>1242.899063221066</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D35" t="n">
-        <v>884.6333646143155</v>
+        <v>1138.325067869165</v>
       </c>
       <c r="E35" t="n">
-        <v>884.6333646143155</v>
+        <v>752.5368152709207</v>
       </c>
       <c r="F35" t="n">
-        <v>473.6474598247079</v>
+        <v>341.5509104813131</v>
       </c>
       <c r="G35" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H35" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I35" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J35" t="n">
-        <v>262.6316941403564</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K35" t="n">
-        <v>666.0988071604011</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L35" t="n">
         <v>1218.912065406599</v>
@@ -6968,19 +6968,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U35" t="n">
-        <v>3445.898053076176</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V35" t="n">
-        <v>3114.835165732605</v>
+        <v>3368.526868987455</v>
       </c>
       <c r="W35" t="n">
-        <v>2762.066510462491</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X35" t="n">
-        <v>2388.600752201411</v>
+        <v>2642.292455456261</v>
       </c>
       <c r="Y35" t="n">
-        <v>1998.461420225599</v>
+        <v>2252.153123480449</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H36" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I36" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J36" t="n">
-        <v>73.9917951266205</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K36" t="n">
-        <v>316.5171204915839</v>
+        <v>260.2588666468724</v>
       </c>
       <c r="L36" t="n">
-        <v>453.7467185072771</v>
+        <v>397.4884646625656</v>
       </c>
       <c r="M36" t="n">
-        <v>1094.292067974381</v>
+        <v>1038.03381412967</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.497760227163</v>
+        <v>1711.239506382451</v>
       </c>
       <c r="O36" t="n">
-        <v>2316.933768979885</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P36" t="n">
         <v>2425.623396507183</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>242.9279780545274</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="C37" t="n">
-        <v>73.9917951266205</v>
+        <v>615.8381172357356</v>
       </c>
       <c r="D37" t="n">
-        <v>73.9917951266205</v>
+        <v>465.7214778233998</v>
       </c>
       <c r="E37" t="n">
-        <v>73.9917951266205</v>
+        <v>317.8083842410067</v>
       </c>
       <c r="F37" t="n">
-        <v>73.9917951266205</v>
+        <v>317.8083842410067</v>
       </c>
       <c r="G37" t="n">
-        <v>73.9917951266205</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H37" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I37" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J37" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K37" t="n">
         <v>175.03972472223</v>
       </c>
       <c r="L37" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M37" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N37" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O37" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P37" t="n">
         <v>1070.508157165603</v>
@@ -7123,22 +7123,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T37" t="n">
-        <v>934.7861920652579</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U37" t="n">
-        <v>934.7861920652579</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V37" t="n">
-        <v>934.7861920652579</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="W37" t="n">
-        <v>645.3690220282972</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="X37" t="n">
-        <v>645.3690220282972</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="Y37" t="n">
-        <v>424.5764428847671</v>
+        <v>784.7743001636425</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2196.616170759899</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C38" t="n">
-        <v>1827.653653819487</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D38" t="n">
-        <v>1469.387955212736</v>
+        <v>1138.325067869165</v>
       </c>
       <c r="E38" t="n">
-        <v>1083.599702614492</v>
+        <v>1138.325067869165</v>
       </c>
       <c r="F38" t="n">
-        <v>672.6137978248846</v>
+        <v>727.3391630795575</v>
       </c>
       <c r="G38" t="n">
-        <v>255.5260160613121</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H38" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I38" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J38" t="n">
-        <v>262.6316941403564</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K38" t="n">
         <v>666.0988071604011</v>
@@ -7196,28 +7196,28 @@
         <v>3699.589756331025</v>
       </c>
       <c r="R38" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S38" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T38" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U38" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V38" t="n">
-        <v>3699.589756331026</v>
+        <v>3368.526868987455</v>
       </c>
       <c r="W38" t="n">
-        <v>3346.821101060912</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X38" t="n">
-        <v>2973.355342799832</v>
+        <v>2642.292455456261</v>
       </c>
       <c r="Y38" t="n">
-        <v>2583.21601082402</v>
+        <v>2252.153123480449</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I39" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J39" t="n">
         <v>192.6510469835159</v>
       </c>
       <c r="K39" t="n">
-        <v>522.0794512893252</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L39" t="n">
         <v>1026.440991155443</v>
       </c>
       <c r="M39" t="n">
-        <v>1253.562877620961</v>
+        <v>1643.486573704924</v>
       </c>
       <c r="N39" t="n">
-        <v>1452.219619273625</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O39" t="n">
         <v>2001.655628026347</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="C40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="D40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="E40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="F40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="G40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="H40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="I40" t="n">
-        <v>2699.655074871684</v>
+        <v>91.86638288598333</v>
       </c>
       <c r="J40" t="n">
-        <v>2699.655074871684</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K40" t="n">
-        <v>2800.703004467293</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L40" t="n">
-        <v>2985.535999368111</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M40" t="n">
-        <v>3190.805600087349</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N40" t="n">
-        <v>3396.628964923453</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O40" t="n">
-        <v>3570.723860312051</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P40" t="n">
-        <v>3696.171436910667</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q40" t="n">
-        <v>3699.589756331026</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R40" t="n">
-        <v>3569.111795050429</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S40" t="n">
-        <v>3361.671510302835</v>
+        <v>985.8439188274994</v>
       </c>
       <c r="T40" t="n">
-        <v>3136.042313615199</v>
+        <v>760.2147221398643</v>
       </c>
       <c r="U40" t="n">
-        <v>2954.33956307757</v>
+        <v>471.062545717544</v>
       </c>
       <c r="V40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="W40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="X40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="Y40" t="n">
-        <v>2699.655074871684</v>
+        <v>216.3780575116571</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1783.661558493312</v>
+        <v>2196.616170759898</v>
       </c>
       <c r="C41" t="n">
-        <v>1414.6990415529</v>
+        <v>1827.653653819486</v>
       </c>
       <c r="D41" t="n">
-        <v>1414.6990415529</v>
+        <v>1469.387955212736</v>
       </c>
       <c r="E41" t="n">
-        <v>1028.910788954656</v>
+        <v>1083.599702614491</v>
       </c>
       <c r="F41" t="n">
-        <v>617.9248841650481</v>
+        <v>672.6137978248837</v>
       </c>
       <c r="G41" t="n">
-        <v>200.8371024014755</v>
+        <v>255.5260160613112</v>
       </c>
       <c r="H41" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I41" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J41" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K41" t="n">
-        <v>666.0988071604008</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L41" t="n">
         <v>1218.912065406599</v>
@@ -7427,34 +7427,34 @@
         <v>3025.098749216832</v>
       </c>
       <c r="P41" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q41" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R41" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S41" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T41" t="n">
-        <v>3484.789894598737</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U41" t="n">
-        <v>3231.098191343888</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V41" t="n">
-        <v>2900.035304000317</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="W41" t="n">
-        <v>2547.266648730203</v>
+        <v>3346.821101060911</v>
       </c>
       <c r="X41" t="n">
-        <v>2173.800890469123</v>
+        <v>2973.355342799831</v>
       </c>
       <c r="Y41" t="n">
-        <v>1783.661558493312</v>
+        <v>2583.21601082402</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I42" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J42" t="n">
         <v>192.6510469835159</v>
       </c>
       <c r="K42" t="n">
-        <v>260.2588666468724</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L42" t="n">
-        <v>453.7467185072771</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M42" t="n">
-        <v>1094.292067974381</v>
+        <v>1643.486573704924</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.497760227163</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O42" t="n">
-        <v>2316.933768979885</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P42" t="n">
         <v>2425.623396507183</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>309.0322391995854</v>
+        <v>267.3675792286645</v>
       </c>
       <c r="C43" t="n">
-        <v>140.0960562716785</v>
+        <v>267.3675792286645</v>
       </c>
       <c r="D43" t="n">
-        <v>73.99179512662053</v>
+        <v>117.2509398163288</v>
       </c>
       <c r="E43" t="n">
-        <v>73.99179512662053</v>
+        <v>117.2509398163288</v>
       </c>
       <c r="F43" t="n">
-        <v>73.99179512662053</v>
+        <v>117.2509398163288</v>
       </c>
       <c r="G43" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H43" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I43" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J43" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K43" t="n">
         <v>175.03972472223</v>
       </c>
       <c r="L43" t="n">
-        <v>359.8727196230481</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M43" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N43" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O43" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P43" t="n">
         <v>1070.508157165603</v>
@@ -7600,19 +7600,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U43" t="n">
-        <v>1073.926476585963</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V43" t="n">
-        <v>819.2419883800761</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="W43" t="n">
-        <v>529.8248183431156</v>
+        <v>495.3571301266819</v>
       </c>
       <c r="X43" t="n">
-        <v>529.8248183431156</v>
+        <v>267.3675792286645</v>
       </c>
       <c r="Y43" t="n">
-        <v>309.0322391995854</v>
+        <v>267.3675792286645</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2196.616170759899</v>
+        <v>2196.616170759898</v>
       </c>
       <c r="C44" t="n">
-        <v>1827.653653819487</v>
+        <v>1827.653653819486</v>
       </c>
       <c r="D44" t="n">
         <v>1469.387955212736</v>
       </c>
       <c r="E44" t="n">
-        <v>1083.599702614492</v>
+        <v>1083.599702614491</v>
       </c>
       <c r="F44" t="n">
-        <v>672.6137978248846</v>
+        <v>672.6137978248837</v>
       </c>
       <c r="G44" t="n">
-        <v>392.2149103541111</v>
+        <v>255.5260160613112</v>
       </c>
       <c r="H44" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I44" t="n">
-        <v>73.99179512662053</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J44" t="n">
-        <v>262.6316941403564</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K44" t="n">
-        <v>666.0988071604011</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L44" t="n">
         <v>1218.912065406599</v>
@@ -7670,25 +7670,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="R44" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S44" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T44" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V44" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="W44" t="n">
-        <v>3346.821101060912</v>
+        <v>3346.821101060911</v>
       </c>
       <c r="X44" t="n">
-        <v>2973.355342799832</v>
+        <v>2973.355342799831</v>
       </c>
       <c r="Y44" t="n">
         <v>2583.21601082402</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.666383316601</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035474</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374223</v>
       </c>
       <c r="E45" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368767</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2540276322777</v>
+        <v>1401.506931395652</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8126299914996</v>
+        <v>1264.065533754874</v>
       </c>
       <c r="H45" t="n">
-        <v>119.8966521363041</v>
+        <v>1163.149555899679</v>
       </c>
       <c r="I45" t="n">
-        <v>73.99179512662053</v>
+        <v>1117.244698889995</v>
       </c>
       <c r="J45" t="n">
-        <v>73.99179512662053</v>
+        <v>1235.90395074689</v>
       </c>
       <c r="K45" t="n">
-        <v>141.5996147899771</v>
+        <v>1565.3323550527</v>
       </c>
       <c r="L45" t="n">
-        <v>278.8292128056704</v>
+        <v>1702.561953068393</v>
       </c>
       <c r="M45" t="n">
-        <v>919.3745622727743</v>
+        <v>2343.107302535497</v>
       </c>
       <c r="N45" t="n">
-        <v>1592.580254525556</v>
+        <v>2541.76404418816</v>
       </c>
       <c r="O45" t="n">
-        <v>2142.016263278278</v>
+        <v>3044.908531789722</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.623396507183</v>
+        <v>3468.876300270558</v>
       </c>
       <c r="Q45" t="n">
-        <v>2656.336852567651</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R45" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.477856733212</v>
       </c>
       <c r="S45" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595847</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755934</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.8829842671</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035358</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307156</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101623</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.881720336669</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3069.159161459239</v>
+        <v>368.794836206924</v>
       </c>
       <c r="C46" t="n">
-        <v>2900.222978531333</v>
+        <v>368.794836206924</v>
       </c>
       <c r="D46" t="n">
-        <v>2750.106339118997</v>
+        <v>368.794836206924</v>
       </c>
       <c r="E46" t="n">
-        <v>2699.655074871684</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F46" t="n">
-        <v>2699.655074871684</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G46" t="n">
-        <v>2699.655074871684</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H46" t="n">
-        <v>2699.655074871684</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I46" t="n">
-        <v>2699.655074871684</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J46" t="n">
-        <v>2699.655074871684</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K46" t="n">
-        <v>2800.703004467293</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L46" t="n">
-        <v>2985.535999368111</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M46" t="n">
-        <v>3190.805600087349</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N46" t="n">
-        <v>3396.628964923453</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O46" t="n">
-        <v>3570.723860312051</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P46" t="n">
-        <v>3696.171436910667</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q46" t="n">
-        <v>3699.589756331026</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R46" t="n">
-        <v>3699.589756331026</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S46" t="n">
-        <v>3699.589756331026</v>
+        <v>912.8964944497715</v>
       </c>
       <c r="T46" t="n">
-        <v>3699.589756331026</v>
+        <v>912.8964944497715</v>
       </c>
       <c r="U46" t="n">
-        <v>3699.589756331026</v>
+        <v>912.8964944497715</v>
       </c>
       <c r="V46" t="n">
-        <v>3699.589756331026</v>
+        <v>658.2120062438846</v>
       </c>
       <c r="W46" t="n">
-        <v>3699.589756331026</v>
+        <v>368.794836206924</v>
       </c>
       <c r="X46" t="n">
-        <v>3471.600205433009</v>
+        <v>368.794836206924</v>
       </c>
       <c r="Y46" t="n">
-        <v>3250.807626289479</v>
+        <v>368.794836206924</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>56.82651903506232</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>432.4286733436996</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>56.82651903506232</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617264085</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K18" t="n">
-        <v>56.82651903506232</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>176.6843491935429</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>441.9679254493707</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>281.0883197457539</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>56.82651903506208</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617264085</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>186.2236012992129</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>441.9679254493707</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>132.2260696718548</v>
       </c>
       <c r="P30" t="n">
-        <v>56.82651903506215</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>48.10560617264079</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>132.2260696718553</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>176.6843491935423</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>132.2260696718548</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298374</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>48.10560617264079</v>
+        <v>441.9679254493705</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298284</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>56.82651903506203</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>441.9679254493705</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298374</v>
+        <v>65.71641987298284</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>347.1032070028302</v>
       </c>
       <c r="P45" t="n">
-        <v>176.6843491935424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>117.2289406413159</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>148.0333797447914</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>28.57190662890901</v>
+        <v>10.87606474714013</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938906</v>
@@ -23549,13 +23549,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>16.45432430361143</v>
+        <v>37.23582285475979</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>78.37724312658112</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>1.042761182875239</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>135.3220053498723</v>
+        <v>207.9088437613915</v>
       </c>
       <c r="I17" t="n">
         <v>118.4960408938906</v>
@@ -23783,19 +23783,19 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.27126058254549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>69.3294256331239</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23911,7 +23911,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23972,22 +23972,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>347.973868464838</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>190.2675014643278</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>146.4233401436782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24148,7 +24148,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>60.69561706280442</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24218,13 +24218,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>135.3220053498723</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>135.3220053498714</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>16.19860367562401</v>
       </c>
       <c r="G25" t="n">
-        <v>111.8034300551659</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S25" t="n">
         <v>205.3658819001187</v>
@@ -24418,7 +24418,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>315.0408840752156</v>
+        <v>191.8769207077969</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>198.92312513612</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,28 +24601,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.96077371353958</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>90.41508268278363</v>
       </c>
       <c r="I28" t="n">
         <v>123.2665578794171</v>
       </c>
       <c r="J28" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24692,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>148.0333797447911</v>
       </c>
       <c r="H29" t="n">
-        <v>113.8332951025933</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>96.48721104172967</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24859,7 +24859,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J31" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>96.48721104172986</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,13 +24929,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.45432430361069</v>
+        <v>148.0333797447911</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,7 +24971,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25075,28 +25075,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.949384971249572</v>
       </c>
       <c r="I34" t="n">
-        <v>18.78252352749607</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J34" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25160,19 +25160,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>17.25779589483022</v>
+        <v>148.0333797447911</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,31 +25309,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>78.25445000056069</v>
       </c>
       <c r="H37" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>123.2665578794171</v>
       </c>
       <c r="J37" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,22 +25363,22 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T37" t="n">
-        <v>85.62402304526066</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,19 +25397,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>81.14389374774487</v>
       </c>
       <c r="H38" t="n">
-        <v>135.322005349871</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25567,10 +25567,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I40" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>118.1641497192399</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>106.3749316258442</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>189.4640298731092</v>
+        <v>135.3220053498719</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.17225448460495</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9207765545704</v>
+        <v>124.0942233117593</v>
       </c>
       <c r="H43" t="n">
         <v>152.7120966692326</v>
@@ -25807,7 +25807,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J43" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>135.322005349871</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>135.3220053498719</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>96.48721104172907</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.9207765545704</v>
@@ -26044,7 +26044,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J46" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S46" t="n">
-        <v>205.3658819001187</v>
+        <v>45.94619958528935</v>
       </c>
       <c r="T46" t="n">
         <v>223.3729047207587</v>
@@ -26080,16 +26080,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809746.2972048499</v>
+        <v>809746.29720485</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>809746.2972048499</v>
+        <v>809746.2972048502</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>809746.29720485</v>
+        <v>809746.2972048502</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>809746.29720485</v>
+        <v>809746.2972048501</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>809746.2972048501</v>
+        <v>809746.29720485</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>809746.29720485</v>
+        <v>809746.2972048501</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>809746.29720485</v>
+        <v>809746.2972048501</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>809746.2972048501</v>
+        <v>809746.29720485</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>809746.2972048502</v>
+        <v>809746.29720485</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>809746.2972048501</v>
+        <v>809746.2972048499</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>388396.0040473217</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473216</v>
+        <v>388396.0040473218</v>
       </c>
       <c r="G2" t="n">
         <v>388396.0040473217</v>
@@ -26332,10 +26332,10 @@
         <v>388396.0040473217</v>
       </c>
       <c r="I2" t="n">
-        <v>388396.0040473218</v>
+        <v>388396.0040473217</v>
       </c>
       <c r="J2" t="n">
-        <v>388396.0040473217</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="K2" t="n">
         <v>388396.0040473217</v>
@@ -26347,13 +26347,13 @@
         <v>388396.0040473217</v>
       </c>
       <c r="N2" t="n">
-        <v>388396.0040473217</v>
+        <v>388396.0040473218</v>
       </c>
       <c r="O2" t="n">
-        <v>388396.0040473217</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="P2" t="n">
-        <v>388396.0040473218</v>
+        <v>388396.0040473216</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188427</v>
+        <v>248146.7686188425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965286</v>
+        <v>62453.05588965289</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>13192.26577213462</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="F4" t="n">
-        <v>13192.26577213461</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="G4" t="n">
-        <v>13192.26577213461</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="H4" t="n">
-        <v>13192.26577213461</v>
+        <v>16707.03278084645</v>
       </c>
       <c r="I4" t="n">
-        <v>13192.26577213461</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="J4" t="n">
-        <v>13192.26577213461</v>
+        <v>16707.03278084645</v>
       </c>
       <c r="K4" t="n">
-        <v>13192.26577213461</v>
+        <v>16707.03278084645</v>
       </c>
       <c r="L4" t="n">
-        <v>13192.26577213461</v>
+        <v>16707.03278084645</v>
       </c>
       <c r="M4" t="n">
-        <v>13192.26577213461</v>
+        <v>16707.03278084645</v>
       </c>
       <c r="N4" t="n">
-        <v>13192.26577213462</v>
+        <v>16707.03278084645</v>
       </c>
       <c r="O4" t="n">
-        <v>13192.26577213461</v>
+        <v>16707.03278084645</v>
       </c>
       <c r="P4" t="n">
-        <v>13192.26577213462</v>
+        <v>16707.03278084645</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>69171.54328360136</v>
@@ -26485,13 +26485,13 @@
         <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
+        <v>69171.54328360138</v>
+      </c>
+      <c r="I5" t="n">
+        <v>69171.54328360138</v>
+      </c>
+      <c r="J5" t="n">
         <v>69171.54328360136</v>
-      </c>
-      <c r="I5" t="n">
-        <v>69171.54328360136</v>
-      </c>
-      <c r="J5" t="n">
-        <v>69171.54328360138</v>
       </c>
       <c r="K5" t="n">
         <v>69171.54328360138</v>
@@ -26500,7 +26500,7 @@
         <v>69171.54328360138</v>
       </c>
       <c r="M5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="N5" t="n">
         <v>69171.54328360138</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353627.5624355191</v>
+        <v>-357502.8978572136</v>
       </c>
       <c r="C6" t="n">
-        <v>236340.3167790255</v>
+        <v>232464.9813573308</v>
       </c>
       <c r="D6" t="n">
-        <v>236340.3167790254</v>
+        <v>232464.9813573308</v>
       </c>
       <c r="E6" t="n">
-        <v>57885.42637274299</v>
+        <v>54370.65936403135</v>
       </c>
       <c r="F6" t="n">
-        <v>306032.1949915857</v>
+        <v>302517.427982874</v>
       </c>
       <c r="G6" t="n">
-        <v>306032.1949915857</v>
+        <v>302517.4279828739</v>
       </c>
       <c r="H6" t="n">
-        <v>306032.1949915857</v>
+        <v>302517.4279828739</v>
       </c>
       <c r="I6" t="n">
-        <v>306032.1949915859</v>
+        <v>302517.4279828739</v>
       </c>
       <c r="J6" t="n">
-        <v>129608.9757989927</v>
+        <v>126094.2087902809</v>
       </c>
       <c r="K6" t="n">
-        <v>306032.1949915858</v>
+        <v>302517.4279828739</v>
       </c>
       <c r="L6" t="n">
-        <v>306032.1949915858</v>
+        <v>302517.4279828739</v>
       </c>
       <c r="M6" t="n">
-        <v>243579.1391019329</v>
+        <v>240064.372093221</v>
       </c>
       <c r="N6" t="n">
-        <v>306032.1949915857</v>
+        <v>302517.427982874</v>
       </c>
       <c r="O6" t="n">
-        <v>306032.1949915857</v>
+        <v>302517.4279828738</v>
       </c>
       <c r="P6" t="n">
-        <v>306032.1949915858</v>
+        <v>302517.4279828738</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="F3" t="n">
         <v>593.4761003380635</v>
@@ -26753,31 +26753,31 @@
         <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="I3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="J3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="K3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="L3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="M3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="N3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="O3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="P3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>924.8974390827563</v>
@@ -26805,31 +26805,31 @@
         <v>924.8974390827563</v>
       </c>
       <c r="H4" t="n">
+        <v>924.8974390827565</v>
+      </c>
+      <c r="I4" t="n">
+        <v>924.8974390827565</v>
+      </c>
+      <c r="J4" t="n">
         <v>924.8974390827563</v>
       </c>
-      <c r="I4" t="n">
-        <v>924.8974390827563</v>
-      </c>
-      <c r="J4" t="n">
-        <v>924.8974390827565</v>
-      </c>
       <c r="K4" t="n">
-        <v>924.8974390827565</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="L4" t="n">
-        <v>924.8974390827565</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="M4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="N4" t="n">
-        <v>924.8974390827566</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="O4" t="n">
-        <v>924.8974390827566</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="P4" t="n">
-        <v>924.8974390827566</v>
+        <v>924.8974390827564</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209769</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282006</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282004</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>359.6191221124139</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>35.61419889577286</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>19.42954993933622</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>208.142060795192</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>185.3459314220228</v>
       </c>
       <c r="H5" t="n">
-        <v>48.70225828709204</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>2.793929914413724</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>1.751881073729265</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.31455747438014</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>123.516984545266</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>13.21032716693537</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>12.03533246204665</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,10 +31753,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J11" t="n">
         <v>202.4946418937396</v>
@@ -31765,16 +31765,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M11" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P11" t="n">
         <v>343.0858495426692</v>
@@ -31792,7 +31792,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
         <v>120.604421484738</v>
@@ -31847,31 +31847,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O12" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K13" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S13" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32464,10 +32464,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937396</v>
@@ -32476,16 +32476,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M20" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P20" t="n">
         <v>343.0858495426692</v>
@@ -32503,7 +32503,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
         <v>120.604421484738</v>
@@ -32558,31 +32558,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O21" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K22" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,10 +32701,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H23" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I23" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J23" t="n">
         <v>202.4946418937396</v>
@@ -32713,16 +32713,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L23" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M23" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N23" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O23" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P23" t="n">
         <v>343.0858495426692</v>
@@ -32740,7 +32740,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I24" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J24" t="n">
         <v>120.604421484738</v>
@@ -32795,31 +32795,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M24" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N24" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O24" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P24" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q24" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R24" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S24" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T24" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H25" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I25" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J25" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K25" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L25" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M25" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N25" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O25" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P25" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R25" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S25" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T25" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,10 +32938,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H26" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I26" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J26" t="n">
         <v>202.4946418937396</v>
@@ -32950,16 +32950,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L26" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M26" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N26" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O26" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P26" t="n">
         <v>343.0858495426692</v>
@@ -32977,7 +32977,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I27" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J27" t="n">
         <v>120.604421484738</v>
@@ -33032,31 +33032,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M27" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N27" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O27" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P27" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q27" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R27" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S27" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T27" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H28" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I28" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J28" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K28" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L28" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M28" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N28" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O28" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P28" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R28" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S28" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T28" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,10 +33175,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H29" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I29" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J29" t="n">
         <v>202.4946418937396</v>
@@ -33187,16 +33187,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L29" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M29" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N29" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O29" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P29" t="n">
         <v>343.0858495426692</v>
@@ -33214,7 +33214,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I30" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J30" t="n">
         <v>120.604421484738</v>
@@ -33269,31 +33269,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M30" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N30" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O30" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P30" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q30" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R30" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S30" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T30" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H31" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I31" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J31" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K31" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L31" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M31" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N31" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O31" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P31" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R31" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S31" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T31" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,10 +33412,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H32" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I32" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J32" t="n">
         <v>202.4946418937396</v>
@@ -33424,16 +33424,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L32" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M32" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N32" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O32" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P32" t="n">
         <v>343.0858495426692</v>
@@ -33451,7 +33451,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I33" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J33" t="n">
         <v>120.604421484738</v>
@@ -33506,31 +33506,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M33" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N33" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O33" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P33" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q33" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R33" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S33" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T33" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H34" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I34" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J34" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K34" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L34" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M34" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N34" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O34" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P34" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R34" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S34" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T34" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,10 +33649,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H35" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I35" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J35" t="n">
         <v>202.4946418937396</v>
@@ -33661,16 +33661,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L35" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M35" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N35" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O35" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P35" t="n">
         <v>343.0858495426692</v>
@@ -33688,7 +33688,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I36" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J36" t="n">
         <v>120.604421484738</v>
@@ -33743,31 +33743,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M36" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N36" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O36" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P36" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q36" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R36" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S36" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T36" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H37" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I37" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J37" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K37" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L37" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M37" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N37" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O37" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P37" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R37" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S37" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T37" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,10 +33886,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H38" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I38" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J38" t="n">
         <v>202.4946418937396</v>
@@ -33898,16 +33898,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L38" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M38" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N38" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O38" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P38" t="n">
         <v>343.0858495426692</v>
@@ -33925,7 +33925,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I39" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J39" t="n">
         <v>120.604421484738</v>
@@ -33980,31 +33980,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M39" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N39" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O39" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P39" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q39" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R39" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S39" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T39" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H40" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I40" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J40" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K40" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L40" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M40" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N40" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O40" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P40" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R40" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S40" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T40" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,10 +34123,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H41" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I41" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J41" t="n">
         <v>202.4946418937396</v>
@@ -34135,16 +34135,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L41" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M41" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N41" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O41" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P41" t="n">
         <v>343.0858495426692</v>
@@ -34162,7 +34162,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I42" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J42" t="n">
         <v>120.604421484738</v>
@@ -34217,31 +34217,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M42" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N42" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O42" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P42" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q42" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R42" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S42" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T42" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H43" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I43" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J43" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K43" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L43" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M43" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N43" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O43" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P43" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R43" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S43" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T43" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,10 +34360,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H44" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I44" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J44" t="n">
         <v>202.4946418937396</v>
@@ -34372,16 +34372,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L44" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M44" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N44" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O44" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P44" t="n">
         <v>343.0858495426692</v>
@@ -34399,7 +34399,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I45" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J45" t="n">
         <v>120.604421484738</v>
@@ -34454,31 +34454,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M45" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N45" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O45" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P45" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q45" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R45" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S45" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T45" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H46" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I46" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J46" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K46" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L46" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M46" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N46" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O46" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P46" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R46" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S46" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T46" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P11" t="n">
         <v>433.6515619588823</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268336</v>
+        <v>125.1172459677456</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M12" t="n">
-        <v>613.7391141059259</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6633754067311</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105729</v>
@@ -35574,19 +35574,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>119.8578301584801</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>125.1172459677456</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348671</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067311</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q15" t="n">
         <v>233.0438950105729</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>125.1172459677456</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L18" t="n">
         <v>138.6157555714073</v>
@@ -35978,7 +35978,7 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528265</v>
+        <v>286.4718517463694</v>
       </c>
       <c r="Q18" t="n">
         <v>233.0438950105729</v>
@@ -36124,16 +36124,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588823</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>332.755963945262</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>181.3104407622263</v>
+        <v>623.2783662115969</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1235481502625</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P21" t="n">
-        <v>390.8758222985804</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
         <v>233.0438950105729</v>
@@ -36285,19 +36285,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L23" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M23" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N23" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O23" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P23" t="n">
         <v>433.6515619588823</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K24" t="n">
-        <v>125.1172459677454</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L24" t="n">
-        <v>138.6157555714074</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122262</v>
+        <v>229.4160469348671</v>
       </c>
       <c r="N24" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P24" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q24" t="n">
         <v>233.0438950105729</v>
@@ -36522,19 +36522,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M25" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N25" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O25" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P25" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L26" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M26" t="n">
-        <v>638.0987989730414</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N26" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O26" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P26" t="n">
         <v>433.6515619588823</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K27" t="n">
-        <v>332.755963945262</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L27" t="n">
-        <v>324.8393568706202</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0155045122262</v>
+        <v>623.2783662115969</v>
       </c>
       <c r="N27" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1235481502625</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q27" t="n">
         <v>233.0438950105729</v>
@@ -36759,19 +36759,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M28" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N28" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O28" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P28" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,16 +36835,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L29" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M29" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N29" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O29" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P29" t="n">
         <v>433.6515619588823</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K30" t="n">
-        <v>68.29072693268336</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L30" t="n">
-        <v>138.6157555714074</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122262</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N30" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O30" t="n">
-        <v>554.9858674269919</v>
+        <v>293.3496178221172</v>
       </c>
       <c r="P30" t="n">
-        <v>166.6140215878887</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q30" t="n">
         <v>233.0438950105729</v>
@@ -36996,19 +36996,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M31" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N31" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O31" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P31" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L32" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M32" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N32" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O32" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P32" t="n">
         <v>433.6515619588823</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K33" t="n">
-        <v>332.755963945262</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L33" t="n">
-        <v>509.4561008748665</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M33" t="n">
-        <v>229.4160469348671</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N33" t="n">
-        <v>200.6633754067311</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O33" t="n">
-        <v>554.9858674269919</v>
+        <v>293.3496178221177</v>
       </c>
       <c r="P33" t="n">
         <v>428.2502711927636</v>
@@ -37233,19 +37233,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M34" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N34" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O34" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P34" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,16 +37309,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L35" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N35" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O35" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P35" t="n">
         <v>433.6515619588823</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K36" t="n">
-        <v>244.9750761262256</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L36" t="n">
-        <v>138.6157555714074</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M36" t="n">
-        <v>647.0155045122262</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N36" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269919</v>
+        <v>293.3496178221172</v>
       </c>
       <c r="P36" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q36" t="n">
         <v>233.0438950105729</v>
@@ -37470,19 +37470,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M37" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N37" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O37" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P37" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,16 +37546,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L38" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M38" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N38" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P38" t="n">
         <v>433.6515619588823</v>
@@ -37564,7 +37564,7 @@
         <v>247.6524856312122</v>
       </c>
       <c r="R38" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K39" t="n">
-        <v>332.755963945262</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L39" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M39" t="n">
-        <v>229.4160469348671</v>
+        <v>623.2783662115967</v>
       </c>
       <c r="N39" t="n">
         <v>200.6633754067311</v>
       </c>
       <c r="O39" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P39" t="n">
         <v>428.2502711927636</v>
@@ -37707,19 +37707,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M40" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N40" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O40" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P40" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L41" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M41" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N41" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O41" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P41" t="n">
         <v>433.6515619588823</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K42" t="n">
-        <v>68.29072693268336</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L42" t="n">
-        <v>195.4422746064694</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122262</v>
+        <v>623.2783662115967</v>
       </c>
       <c r="N42" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O42" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P42" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q42" t="n">
         <v>233.0438950105729</v>
@@ -37944,19 +37944,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M43" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N43" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O43" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P43" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L44" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M44" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N44" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O44" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P44" t="n">
         <v>433.6515619588823</v>
@@ -38038,7 +38038,7 @@
         <v>247.6524856312122</v>
       </c>
       <c r="R44" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K45" t="n">
-        <v>68.29072693268336</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L45" t="n">
-        <v>138.6157555714074</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M45" t="n">
-        <v>647.0155045122262</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N45" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269919</v>
+        <v>508.2267551530926</v>
       </c>
       <c r="P45" t="n">
-        <v>286.4718517463689</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q45" t="n">
         <v>233.0438950105729</v>
@@ -38181,19 +38181,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M46" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N46" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O46" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P46" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1527180.1040778</v>
+        <v>1512242.72856729</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1859783.096704494</v>
+        <v>1861185.768789562</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2362118.593506647</v>
+        <v>2357862.325109811</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10461722.75608905</v>
+        <v>10467935.96830861</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5736554365943922</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>199.6091794142931</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044668</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>28.51033041214341</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>165.2346790503163</v>
       </c>
       <c r="E5" t="n">
-        <v>144.5394096538124</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,25 +946,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1028,7 +1028,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>48.27083703815669</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>393.3927785723437</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>51.04467479678607</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>28.44734925172066</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>72.65793777463499</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>319.5194584381683</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.355334254343</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.77609278441097</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>33.59447012505906</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.3009637486068</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>53.50170169071299</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>35.42807039329296</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>152.3181986878412</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.9625068175369</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8727930405404</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>98.6522231697884</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>159.3090203265704</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>233.9772638897479</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958671</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183517</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.45447655302773</v>
       </c>
       <c r="T16" t="n">
-        <v>165.0140383262344</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>122.7882751297886</v>
       </c>
       <c r="G17" t="n">
-        <v>412.7093048191902</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>312.9148095184212</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>110.4925755599892</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>2.105616056494064</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9559083391491</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>98.83406427779748</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I18" t="n">
-        <v>41.62150447912307</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.00436698854557</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S18" t="n">
-        <v>145.9089457972574</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>194.5716913732756</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8500920267603</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>44.86502319537134</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.01021271919201</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>222.9750205747625</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2555752860204</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.6795351737214</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.7093048191902</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>312.9148095184212</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>80.04757479054831</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1381782921609</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9559083391491</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>98.83406427779748</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I21" t="n">
-        <v>41.62150447912307</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.00436698854557</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S21" t="n">
-        <v>145.9089457972574</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>194.5716913732756</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8500920267603</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8276547331671</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.8841590207553</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.9750205747625</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>240.4212602577122</v>
+        <v>225.5650375952924</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.90088782653663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>164.1053689370332</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.64843562452423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.2174302415114</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>55.22804619697938</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>40.41260797243004</v>
+        <v>74.46989343623055</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>20.50993243674175</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.2614115356896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8992496457638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>24.07657827762224</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>46.18719652447322</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D46" t="n">
-        <v>21.37554027774215</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2323.683332757143</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.720815816731</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1596.45511720998</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.666864611736</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.6809598221287</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.7171517203155</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>54.52243175631838</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.683332757143</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942404</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942404</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.515311311824</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.552794371412</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="D5" t="n">
-        <v>1509.552794371412</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4661,10 +4661,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4676,19 +4676,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>649.953643809393</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>429.1610646658629</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1933.544000781331</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1933.544000781331</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.278302174581</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="E8" t="n">
-        <v>1189.490049576337</v>
+        <v>934.4529722842963</v>
       </c>
       <c r="F8" t="n">
-        <v>778.5041447867291</v>
+        <v>523.4670674946888</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>105.5032593928756</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="W10" t="n">
-        <v>625.3202087220412</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1626.94664591678</v>
+        <v>2047.3543078972</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>1678.391790956789</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1320.126092350038</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>934.3378397517938</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>523.3519349621863</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>523.3519349621863</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>200.6050072468647</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399293</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>215.77758704444</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>564.1738308751543</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1048.666806192624</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1604.365138508513</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>2154.42325326018</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2628.639895377777</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2995.69844512784</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.122369699647</v>
       </c>
       <c r="R11" t="n">
-        <v>2684.243946791545</v>
+        <v>3194.122369699647</v>
       </c>
       <c r="S11" t="n">
-        <v>2684.243946791545</v>
+        <v>3194.122369699647</v>
       </c>
       <c r="T11" t="n">
-        <v>2684.243946791545</v>
+        <v>3160.188561492516</v>
       </c>
       <c r="U11" t="n">
-        <v>2684.243946791545</v>
+        <v>3160.188561492516</v>
       </c>
       <c r="V11" t="n">
-        <v>2353.181059447974</v>
+        <v>3160.188561492516</v>
       </c>
       <c r="W11" t="n">
-        <v>2000.41240417786</v>
+        <v>2807.419906222402</v>
       </c>
       <c r="X11" t="n">
-        <v>1626.94664591678</v>
+        <v>2433.954147961322</v>
       </c>
       <c r="Y11" t="n">
-        <v>1626.94664591678</v>
+        <v>2433.954147961322</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.960322082656</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>813.507292801529</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.5728831402778</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.3354281348222</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.8008701617072</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.1231290014983</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>117.9245703139051</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399293</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>63.88244739399293</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>355.9060257624205</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>722.1788187966853</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1304.031803475715</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1916.991718689064</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2411.314611418613</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2475.771104479178</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2676.915881557611</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2641.129951867416</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2487.273185516061</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.331259437741</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.176923033155</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.024814801412</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.787458073211</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.935957867678</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.175659102724</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>508.8021278866321</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>508.8021278866321</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>358.6854884742964</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7723948919033</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399293</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399293</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399293</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399293</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399293</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>142.3679338555494</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>298.3287695220714</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>473.1567265041824</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>649.2622818508094</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>795.9079702090278</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961062</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961062</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961062</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961062</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961062</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>897.8680081961062</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>798.2192979235926</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>508.8021278866321</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>508.8021278866321</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>508.8021278866321</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2295.693122775167</v>
+        <v>1748.986667826852</v>
       </c>
       <c r="C14" t="n">
-        <v>1926.730605834756</v>
+        <v>1380.024150886441</v>
       </c>
       <c r="D14" t="n">
-        <v>1568.464907228005</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="E14" t="n">
-        <v>1182.676654629761</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F14" t="n">
-        <v>771.6907498401536</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G14" t="n">
-        <v>354.602968076581</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604017</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389912</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449758</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216835</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.41379555613</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>3445.898053076181</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V14" t="n">
-        <v>3445.898053076181</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W14" t="n">
-        <v>3445.898053076181</v>
+        <v>2762.066510462491</v>
       </c>
       <c r="X14" t="n">
-        <v>3072.432294815101</v>
+        <v>2525.725839866786</v>
       </c>
       <c r="Y14" t="n">
-        <v>2682.292962839289</v>
+        <v>2135.586507890974</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>141.5996147899774</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L15" t="n">
-        <v>645.9611546560957</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.5065041232</v>
+        <v>1168.937623104806</v>
       </c>
       <c r="N15" t="n">
-        <v>1660.196134132114</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.632142884837</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
         <v>2635.224952969837</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222303</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230485</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422863</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783905</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669892</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585965</v>
+        <v>1071.44720734048</v>
       </c>
       <c r="T16" t="n">
-        <v>907.2456297917884</v>
+        <v>845.818010652845</v>
       </c>
       <c r="U16" t="n">
-        <v>618.0934533694681</v>
+        <v>556.6658342305248</v>
       </c>
       <c r="V16" t="n">
-        <v>363.4089651635812</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="W16" t="n">
-        <v>73.9917951266206</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2447.61907691064</v>
+        <v>1728.12460577276</v>
       </c>
       <c r="C17" t="n">
-        <v>2078.656559970228</v>
+        <v>1359.162088832348</v>
       </c>
       <c r="D17" t="n">
-        <v>1720.390861363478</v>
+        <v>1000.896390225598</v>
       </c>
       <c r="E17" t="n">
-        <v>1334.602608765233</v>
+        <v>615.1081376273532</v>
       </c>
       <c r="F17" t="n">
-        <v>923.6167039756258</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G17" t="n">
-        <v>506.7386182996761</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H17" t="n">
-        <v>190.6630531295536</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I17" t="n">
-        <v>79.05439094774634</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>285.1378091813613</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>714.7482357461196</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L17" t="n">
-        <v>1299.994586194453</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>1967.800461440478</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2631.780136371718</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3213.569677331768</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>3672.43920745689</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>3939.809354728272</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>3952.719547387317</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3952.719547387317</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3952.719547387317</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U17" t="n">
-        <v>3952.719547387317</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V17" t="n">
-        <v>3950.592662481768</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="W17" t="n">
-        <v>3597.824007211653</v>
+        <v>2878.329536073773</v>
       </c>
       <c r="X17" t="n">
-        <v>3224.358248950573</v>
+        <v>2504.863777812693</v>
       </c>
       <c r="Y17" t="n">
-        <v>2834.218916974762</v>
+        <v>2114.724445836881</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4173550869474</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9643258058204</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0299161445691</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7924611391136</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2579031659985</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
-        <v>220.9287028234237</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>121.0963146640323</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>79.05439094774634</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>208.1028833519316</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K18" t="n">
-        <v>293.4675698844942</v>
+        <v>391.162675622009</v>
       </c>
       <c r="L18" t="n">
-        <v>821.7054085897367</v>
+        <v>528.3922736377021</v>
       </c>
       <c r="M18" t="n">
-        <v>1490.113272629838</v>
+        <v>1168.937623104806</v>
       </c>
       <c r="N18" t="n">
-        <v>1717.369966708747</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O18" t="n">
-        <v>2292.969344477245</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2422.657382243061</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2646.831022891829</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2632.685197650874</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.302424118291</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.765362125083</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.633956037446</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.481847805704</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.244491077502</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.392990871969</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.632692107015</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.014201775213</v>
+        <v>287.916845379087</v>
       </c>
       <c r="C19" t="n">
-        <v>174.014201775213</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="D19" t="n">
-        <v>174.014201775213</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E19" t="n">
-        <v>79.05439094774634</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F19" t="n">
-        <v>79.05439094774634</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G19" t="n">
-        <v>79.05439094774634</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>79.05439094774634</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>79.05439094774634</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>79.05439094774634</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>190.8131924411722</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L19" t="n">
-        <v>389.3524157470675</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M19" t="n">
-        <v>609.0733125644308</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N19" t="n">
-        <v>829.0043539776821</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O19" t="n">
-        <v>1016.129972078898</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P19" t="n">
-        <v>1152.727583085068</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1163.865608377946</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1163.865608377946</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1163.865608377946</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="T19" t="n">
-        <v>938.638314868085</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="U19" t="n">
-        <v>649.49126912463</v>
+        <v>577.3340154160476</v>
       </c>
       <c r="V19" t="n">
-        <v>394.8067809187431</v>
+        <v>577.3340154160476</v>
       </c>
       <c r="W19" t="n">
-        <v>394.8067809187431</v>
+        <v>287.916845379087</v>
       </c>
       <c r="X19" t="n">
-        <v>394.8067809187431</v>
+        <v>287.916845379087</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.014201775213</v>
+        <v>287.916845379087</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2336.010414728833</v>
+        <v>2095.938085977276</v>
       </c>
       <c r="C20" t="n">
-        <v>1967.047897788421</v>
+        <v>1726.975569036864</v>
       </c>
       <c r="D20" t="n">
-        <v>1608.78219918167</v>
+        <v>1368.709870430114</v>
       </c>
       <c r="E20" t="n">
-        <v>1222.993946583426</v>
+        <v>982.9216178318695</v>
       </c>
       <c r="F20" t="n">
-        <v>812.0080417938185</v>
+        <v>571.935713042262</v>
       </c>
       <c r="G20" t="n">
-        <v>395.1299561178689</v>
+        <v>154.8479312786895</v>
       </c>
       <c r="H20" t="n">
-        <v>79.05439094774634</v>
+        <v>154.8479312786895</v>
       </c>
       <c r="I20" t="n">
-        <v>79.05439094774634</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J20" t="n">
-        <v>285.1378091813613</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K20" t="n">
-        <v>714.7482357461196</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L20" t="n">
-        <v>1299.994586194453</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M20" t="n">
-        <v>1967.800461440478</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2631.780136371718</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3213.569677331767</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P20" t="n">
-        <v>3672.43920745689</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>3939.809354728272</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>3952.719547387317</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>3952.719547387317</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>3952.719547387317</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.044619819478</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="V20" t="n">
-        <v>3367.981732475907</v>
+        <v>3212.311831484282</v>
       </c>
       <c r="W20" t="n">
-        <v>3015.213077205793</v>
+        <v>2859.543176214167</v>
       </c>
       <c r="X20" t="n">
-        <v>2641.747318944713</v>
+        <v>2486.077417953088</v>
       </c>
       <c r="Y20" t="n">
-        <v>2641.747318944713</v>
+        <v>2095.938085977276</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4173550869474</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9643258058204</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0299161445691</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7924611391136</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2579031659985</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
-        <v>220.9287028234237</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>121.0963146640323</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>79.05439094774634</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J21" t="n">
-        <v>208.1028833519316</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K21" t="n">
-        <v>293.4675698844942</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L21" t="n">
-        <v>454.573466739312</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.981330779413</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N21" t="n">
-        <v>1824.78697545844</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2400.386353226938</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2610.057200538173</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2646.831022891829</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2632.685197650874</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.302424118291</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.765362125083</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.633956037446</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.481847805704</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.244491077502</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.392990871969</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.632692107015</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3484.642496041383</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="C22" t="n">
-        <v>3484.642496041383</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="D22" t="n">
-        <v>3484.642496041383</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="E22" t="n">
-        <v>3336.72940245899</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="F22" t="n">
-        <v>3189.839454961079</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G22" t="n">
-        <v>3021.326672402325</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H22" t="n">
-        <v>2867.908329957117</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I22" t="n">
-        <v>2867.908329957117</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J22" t="n">
-        <v>2867.908329957117</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K22" t="n">
-        <v>2979.667131450543</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L22" t="n">
-        <v>3178.206354756438</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M22" t="n">
-        <v>3397.927251573801</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N22" t="n">
-        <v>3617.858292987053</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O22" t="n">
-        <v>3804.983911088269</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P22" t="n">
-        <v>3941.581522094439</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>3952.719547387317</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>3952.719547387317</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>3952.719547387317</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>3727.492253877456</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>3484.642496041383</v>
+        <v>846.0830042674853</v>
       </c>
       <c r="V22" t="n">
-        <v>3484.642496041383</v>
+        <v>591.3985160615985</v>
       </c>
       <c r="W22" t="n">
-        <v>3484.642496041383</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X22" t="n">
-        <v>3484.642496041383</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="Y22" t="n">
-        <v>3484.642496041383</v>
+        <v>73.99179512662049</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,31 +5974,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6074,13 +6074,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1333.153271631606</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1333.153271631606</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>1333.153271631606</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>1043.736101594646</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.787631771461</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.787631771461</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6314,7 +6314,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1440.685527502827</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1186.00103929694</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>896.5838692599799</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619626</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4503.13917884751</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919603</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507268</v>
+        <v>153.00299670976</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>4660.934562929845</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>4660.934562929845</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>4660.934562929845</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y31" t="n">
-        <v>4660.934562929845</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="32">
@@ -6682,43 +6682,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2405.169842307183</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2554.239526509242</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2801.004654415706</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3569.372800808168</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.5496456007323</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C34" t="n">
-        <v>710.6134626728254</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1458.095454424135</v>
+        <v>1423.694155975851</v>
       </c>
       <c r="T34" t="n">
-        <v>1458.095454424135</v>
+        <v>1199.908740765357</v>
       </c>
       <c r="U34" t="n">
-        <v>1168.966815637693</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="V34" t="n">
-        <v>1168.966815637693</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="W34" t="n">
-        <v>879.5496456007323</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="X34" t="n">
-        <v>879.5496456007323</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="Y34" t="n">
-        <v>879.5496456007323</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,13 +6958,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.7003690904323</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="C37" t="n">
-        <v>562.7003690904323</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>562.7003690904323</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.3488339206721</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2953582963253</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>581.3058073983079</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7408,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,16 +7478,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256434</v>
@@ -7496,16 +7496,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>699.5778825909698</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C43" t="n">
-        <v>699.5778825909698</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>699.5778825909698</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E43" t="n">
-        <v>551.6647890085767</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>699.5778825909698</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="44">
@@ -7651,13 +7651,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619127</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>843.7395088768801</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C46" t="n">
-        <v>843.7395088768801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1133.156678913841</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>843.7395088768801</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>843.7395088768801</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.7395088768801</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>28.33919200008278</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>282.1602015490985</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928483</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>82.48338126429735</v>
       </c>
       <c r="N15" t="n">
-        <v>176.8008973295454</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>252.0838998303354</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.292745752639</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>167.9634363311213</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>80.79071671254508</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9962,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>29.47535963978203</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11144,19 +11144,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>41.70230979040073</v>
+        <v>27.47001067514529</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>164.6180294004005</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>180.9717061131903</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1897708139312</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.1169375972939</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>154.4561466672648</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>129.1656554187736</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>31.5644276023182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>12.97296450542719</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>137.9932954615211</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>208.7844338901267</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>224.2110473578499</v>
       </c>
       <c r="U13" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2713543513364</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>153.4854201540396</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>155.7318637486452</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>135.7538367887211</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176906</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>202.911405347091</v>
       </c>
       <c r="T16" t="n">
-        <v>58.35886639452426</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>284.0877706119228</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>149.9222220274004</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7430979376325</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1381782921609</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>325.6466424136408</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3817979032565</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>52.42374992737716</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8276547331671</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.8841590207553</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>120.4661307412137</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>11.11212910855046</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>124.9860859526905</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
-        <v>203.7430225216617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.05430648975914</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>110.4925755599892</v>
+        <v>38.44846610334226</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>149.9222220274004</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.7430979376325</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>120.4661307412137</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>11.11212910855046</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>124.9860859526905</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
-        <v>203.7430225216617</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>45.8343150283082</v>
+        <v>60.69561706280456</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.9310923554007</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>57.44219212135604</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>44.17985890344634</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>228.5889167740531</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23.61454994042592</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.20591644958978</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>157.5082020111732</v>
+        <v>123.4509165473727</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>146.7368886618861</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,13 +25365,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.32324181640521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.685403706331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.344469745309</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>172.3974568276216</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>48.75693659211572</v>
       </c>
       <c r="D46" t="n">
-        <v>127.2399327404702</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26079,7 +26079,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>697224.4526076341</v>
+        <v>753009.612704983</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809746.2972048506</v>
+        <v>809746.29720485</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836652.6809011187</v>
+        <v>809746.29720485</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836652.6809011187</v>
+        <v>809746.29720485</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>332525.5015181212</v>
+        <v>360224.5155594116</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473219</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="G2" t="n">
-        <v>401756.0402023308</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="H2" t="n">
-        <v>401756.0402023309</v>
+        <v>388396.0040473215</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>123022.0575261932</v>
       </c>
       <c r="F3" t="n">
-        <v>242330.9539870007</v>
+        <v>122192.1638359268</v>
       </c>
       <c r="G3" t="n">
-        <v>57494.41823181733</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>199831.8565861947</v>
+        <v>255532.1595990994</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>30961.93223513136</v>
       </c>
       <c r="N3" t="n">
-        <v>61381.19620826745</v>
+        <v>30950.65265136595</v>
       </c>
       <c r="O3" t="n">
-        <v>15228.9843368717</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>18228.92756966326</v>
+        <v>17474.36638293853</v>
       </c>
       <c r="F4" t="n">
         <v>16707.03278084644</v>
       </c>
       <c r="G4" t="n">
-        <v>16344.54194562415</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="H4" t="n">
-        <v>16344.54194562414</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>59117.03032849837</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360147</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>74144.87427222254</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
-        <v>74144.87427222254</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572137</v>
+        <v>-357502.8978572136</v>
       </c>
       <c r="C6" t="n">
         <v>232464.9813573308</v>
       </c>
       <c r="D6" t="n">
-        <v>232464.9813573308</v>
+        <v>232464.9813573309</v>
       </c>
       <c r="E6" t="n">
-        <v>265065.0958850485</v>
+        <v>155746.9525342793</v>
       </c>
       <c r="F6" t="n">
-        <v>60186.47399587327</v>
+        <v>176686.002685006</v>
       </c>
       <c r="G6" t="n">
-        <v>253772.2057526668</v>
+        <v>298878.1665209329</v>
       </c>
       <c r="H6" t="n">
-        <v>311266.6239844841</v>
+        <v>298878.1665209327</v>
       </c>
       <c r="I6" t="n">
-        <v>142818.5665420148</v>
+        <v>86143.67226938838</v>
       </c>
       <c r="J6" t="n">
-        <v>166227.2039356164</v>
+        <v>165252.6126758948</v>
       </c>
       <c r="K6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.831868488</v>
       </c>
       <c r="L6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.831868488</v>
       </c>
       <c r="M6" t="n">
-        <v>342650.4231282095</v>
+        <v>310713.8996333564</v>
       </c>
       <c r="N6" t="n">
-        <v>281269.2269199422</v>
+        <v>310725.1792171218</v>
       </c>
       <c r="O6" t="n">
-        <v>327421.4387913378</v>
+        <v>341675.8318684878</v>
       </c>
       <c r="P6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684878</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>484.6958857368689</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380645</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="G3" t="n">
-        <v>645.1163831162996</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="H3" t="n">
-        <v>645.1163831162996</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26795,19 +26795,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>798.5305924249117</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827575</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>988.1798868468293</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="H4" t="n">
-        <v>988.1798868468293</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>106.9522215197822</v>
       </c>
       <c r="F3" t="n">
-        <v>215.7324361209778</v>
+        <v>108.7802146011946</v>
       </c>
       <c r="G3" t="n">
-        <v>51.64028277823513</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>185.2660223378006</v>
+        <v>236.9063051160368</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.2433196703561</v>
       </c>
       <c r="F4" t="n">
-        <v>250.6101663282019</v>
+        <v>126.3668466578446</v>
       </c>
       <c r="G4" t="n">
-        <v>63.2824477640718</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>227.0337564067438</v>
+        <v>290.3162041708169</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703558</v>
       </c>
       <c r="N4" t="n">
-        <v>250.6101663282017</v>
+        <v>126.3668466578448</v>
       </c>
       <c r="O4" t="n">
-        <v>63.28244776407203</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703561</v>
       </c>
       <c r="N4" t="n">
-        <v>250.6101663282019</v>
+        <v>126.3668466578446</v>
       </c>
       <c r="O4" t="n">
-        <v>63.2824477640718</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.3576608082669</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>128.1430790558418</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458411</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>118.1548615680144</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>189.4483625703667</v>
       </c>
       <c r="E5" t="n">
-        <v>237.3909604184493</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>177.4388183508805</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>20.39139144845126</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>272.8780979675711</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.6754007031936418</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>213.865060561956</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.948526173816557</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>19.95534367759882</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>75.12055531606288</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>165.3787233449631</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>247.859836282618</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>307.4920441745566</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>342.1441465181667</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>347.6803965095231</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>328.3047393686347</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>280.2004994525383</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>210.4189058527328</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>122.3991072660044</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>44.40204018584483</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>8.529673325881982</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1558820939053245</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.042553414603831</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>10.06887113577911</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>35.89493116070209</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>98.49843466658392</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>168.3495134450406</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>226.3666964472047</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>264.1592577265935</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>271.1507672482131</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>248.0499784298861</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>199.0819761623755</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>133.0810288536399</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>64.72976375935018</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>19.36497241599659</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>4.202221877284739</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.06858904043446261</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.8740417611648454</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>7.771025840174723</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>26.28481950848463</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>61.79475251435457</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>101.5477609789702</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>129.9461723826353</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>137.0100189796857</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>133.7522269607987</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>123.5418300235548</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>105.7113780957918</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>73.1890787462672</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>39.30009591564841</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>15.23216414684553</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>3.734542070431611</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.04767500515444617</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651553</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937399</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779018</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712527</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359666</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822515</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426697</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457574</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411495</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810512</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>12.328626159853</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182837</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847382</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512819</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842451</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>332.005087490065</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947074</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671571</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080797</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784624</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308312</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207007</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490372</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K16" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441089</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720919</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104774</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937813</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685359</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>4.57268470752279</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.593432695944921</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H17" t="n">
-        <v>26.55999259734593</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>99.98331401041668</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J17" t="n">
-        <v>220.1143582774555</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>329.894364296804</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L17" t="n">
-        <v>409.2631301653285</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M17" t="n">
-        <v>455.384088871839</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N17" t="n">
-        <v>462.7526795191925</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O17" t="n">
-        <v>436.9642331488902</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P17" t="n">
-        <v>372.9388634677499</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q17" t="n">
-        <v>280.0615550442223</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R17" t="n">
-        <v>162.9097165866503</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>59.09784755884495</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T17" t="n">
-        <v>11.3527516264989</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2074746156755937</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.387608824061475</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>13.40137995869898</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>47.77512837229201</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>131.0986038557378</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>224.0683950678566</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>301.2876089261549</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M18" t="n">
-        <v>351.5884287983832</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>360.8939283246552</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O18" t="n">
-        <v>330.1474380651878</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P18" t="n">
-        <v>264.9724253595986</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.1270491907244</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>86.15346716409756</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S18" t="n">
-        <v>25.77422530658044</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.59303732154603</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09129005421457075</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.163324625291688</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>10.34301348668428</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I19" t="n">
-        <v>34.98434418604458</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J19" t="n">
-        <v>82.24705100812231</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K19" t="n">
-        <v>135.1571701020706</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L19" t="n">
-        <v>172.9546447456388</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>182.3564228536779</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>178.0203947048636</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O19" t="n">
-        <v>164.4306479457742</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>140.6988255898237</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.41257385056124</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R19" t="n">
-        <v>52.30730542447896</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S19" t="n">
-        <v>20.27357551531059</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.970568853519028</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06345407047045577</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.593432695944921</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H20" t="n">
-        <v>26.55999259734593</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>99.98331401041668</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J20" t="n">
-        <v>220.1143582774555</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>329.894364296804</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L20" t="n">
-        <v>409.2631301653285</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M20" t="n">
-        <v>455.384088871839</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N20" t="n">
-        <v>462.7526795191925</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O20" t="n">
-        <v>436.9642331488902</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P20" t="n">
-        <v>372.9388634677499</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q20" t="n">
-        <v>280.0615550442223</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R20" t="n">
-        <v>162.9097165866503</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>59.09784755884495</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T20" t="n">
-        <v>11.3527516264989</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2074746156755937</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.387608824061475</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>13.40137995869898</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>47.77512837229201</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>131.0986038557378</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>224.0683950678566</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>301.2876089261549</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M21" t="n">
-        <v>351.5884287983832</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>360.8939283246552</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O21" t="n">
-        <v>330.1474380651878</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P21" t="n">
-        <v>264.9724253595986</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.1270491907244</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>86.15346716409756</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S21" t="n">
-        <v>25.77422530658044</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.59303732154603</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09129005421457075</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.163324625291688</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>10.34301348668428</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I22" t="n">
-        <v>34.98434418604458</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J22" t="n">
-        <v>82.24705100812231</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K22" t="n">
-        <v>135.1571701020706</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L22" t="n">
-        <v>172.9546447456388</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>182.3564228536779</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>178.0203947048636</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O22" t="n">
-        <v>164.4306479457742</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>140.6988255898237</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.41257385056124</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R22" t="n">
-        <v>52.30730542447896</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S22" t="n">
-        <v>20.27357551531059</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.970568853519028</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06345407047045577</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>153.4294339903506</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>351.9153978088023</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>489.3868437550198</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>561.3114467837265</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>555.6142573249163</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>479.0067092096933</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>370.7662118687514</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>200.428206638188</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>294.9733114832602</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>369.972518216429</v>
       </c>
       <c r="M12" t="n">
-        <v>410.0055067279164</v>
+        <v>587.7302875545752</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>619.1514295084334</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>499.3160532621712</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>65.10756874804522</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>203.1765425034675</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>79.27826915308735</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>157.5361976429515</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>176.5938959415263</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>177.8843993400273</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>148.1269579375944</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>102.9899373606853</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391274</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>407.542538404086</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517159</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730419</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513599</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233101</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588828</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312126</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268367</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748669</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122267</v>
+        <v>263.7938220265236</v>
       </c>
       <c r="N15" t="n">
-        <v>377.4642727362771</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269925</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P15" t="n">
-        <v>428.250271192764</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472405</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531411</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493113</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233375</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854533</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369854</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353358</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>208.1650689228429</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K17" t="n">
-        <v>433.9499258229882</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L17" t="n">
-        <v>591.1579297457918</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M17" t="n">
-        <v>674.5513891373987</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N17" t="n">
-        <v>670.6865403345857</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>587.6662029899488</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P17" t="n">
-        <v>463.504575883963</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q17" t="n">
-        <v>270.0708558296775</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R17" t="n">
-        <v>13.04059864550061</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>130.35201252948</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>86.22695609349765</v>
+        <v>320.3746267630187</v>
       </c>
       <c r="L18" t="n">
-        <v>533.5735744497399</v>
+        <v>138.6157555714072</v>
       </c>
       <c r="M18" t="n">
-        <v>675.1594586263648</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N18" t="n">
-        <v>229.5522162413219</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O18" t="n">
-        <v>581.4135128974729</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P18" t="n">
-        <v>130.9980179452684</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>226.4380208573419</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>112.8876782761878</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>200.5446700059549</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M19" t="n">
-        <v>221.9402998155185</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>222.1525670840922</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O19" t="n">
-        <v>189.0157758598139</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>137.9773848547172</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.25053059886686</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>208.1650689228429</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K20" t="n">
-        <v>433.9499258229882</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L20" t="n">
-        <v>591.1579297457918</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M20" t="n">
-        <v>674.5513891373987</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N20" t="n">
-        <v>670.6865403345857</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>587.6662029899488</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P20" t="n">
-        <v>463.504575883963</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q20" t="n">
-        <v>270.0708558296775</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R20" t="n">
-        <v>13.04059864550061</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>130.35201252948</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>86.22695609349765</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>162.7332291462807</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M21" t="n">
-        <v>675.1594586263648</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N21" t="n">
-        <v>708.8945905848755</v>
+        <v>368.6268117378523</v>
       </c>
       <c r="O21" t="n">
-        <v>581.4135128974729</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>211.7887346578134</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.14527510470288</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>112.8876782761878</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>200.5446700059549</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M22" t="n">
-        <v>221.9402998155185</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>222.1525670840922</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O22" t="n">
-        <v>189.0157758598139</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>137.9773848547172</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.25053059886686</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
@@ -36682,10 +36682,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>71.38553859468868</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37642,7 +37642,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
